--- a/data_year/zb/能源/天然气平衡表.xlsx
+++ b/data_year/zb/能源/天然气平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,919 +508,520 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.800000000000001</v>
+        <v>106.696517509446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>26.00015418</v>
       </c>
       <c r="D2" t="n">
-        <v>202</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>31.4</v>
+        <v>40.3</v>
       </c>
       <c r="F2" t="n">
-        <v>240.6</v>
+        <v>1082.3434</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.4</v>
+        <v>2.10033829889674</v>
       </c>
       <c r="H2" t="n">
-        <v>272</v>
+        <v>957.91</v>
       </c>
       <c r="I2" t="n">
-        <v>245</v>
+        <v>1080.2430617011</v>
       </c>
       <c r="J2" t="n">
-        <v>32.3</v>
+        <v>226.895699521103</v>
       </c>
       <c r="K2" t="n">
-        <v>199</v>
+        <v>691.751269076</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>0.8</v>
+        <v>1.162458</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>27.24057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>164.7334</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.96</v>
+        <v>138.349344449446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>27.14416096392</v>
       </c>
       <c r="D3" t="n">
-        <v>217.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>30.39</v>
+        <v>31.88</v>
       </c>
       <c r="F3" t="n">
-        <v>272.9</v>
+        <v>1333.0135</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.39999999999998</v>
+        <v>0.710875986692197</v>
       </c>
       <c r="H3" t="n">
-        <v>303.29</v>
+        <v>1053.37</v>
       </c>
       <c r="I3" t="n">
-        <v>274.3</v>
+        <v>1341.07942401331</v>
       </c>
       <c r="J3" t="n">
-        <v>42.11</v>
+        <v>264.382215299388</v>
       </c>
       <c r="K3" t="n">
-        <v>214.81</v>
+        <v>875.7159677709381</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0.72</v>
+        <v>1.2787038</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>33.64210395</v>
+      </c>
+      <c r="O3" t="n">
+        <v>311.5235</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.3735897435897</v>
+        <v>154.508876265166</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>32.8770077594999</v>
       </c>
       <c r="D4" t="n">
-        <v>227.5</v>
+        <v>0.644</v>
       </c>
       <c r="E4" t="n">
-        <v>32.03</v>
+        <v>28.9</v>
       </c>
       <c r="F4" t="n">
-        <v>294.58</v>
+        <v>1497.76294</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74000000000007</v>
+        <v>0.762929756585377</v>
       </c>
       <c r="H4" t="n">
-        <v>326.61</v>
+        <v>1106.08</v>
       </c>
       <c r="I4" t="n">
-        <v>291.84</v>
+        <v>1497.00001024341</v>
       </c>
       <c r="J4" t="n">
-        <v>46.16</v>
+        <v>288.274352798155</v>
       </c>
       <c r="K4" t="n">
-        <v>222.53</v>
+        <v>980.747627161593</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>0.68</v>
+        <v>1.26297574326</v>
       </c>
       <c r="N4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>38.6884195425</v>
+      </c>
+      <c r="O4" t="n">
+        <v>420.58294</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.82</v>
+        <v>175.777911431812</v>
       </c>
       <c r="C5" t="n">
-        <v>9.4</v>
+        <v>35.6123748050903</v>
       </c>
       <c r="D5" t="n">
-        <v>267.8</v>
+        <v>0.6931372</v>
       </c>
       <c r="E5" t="n">
-        <v>18.73</v>
+        <v>27.45</v>
       </c>
       <c r="F5" t="n">
-        <v>331.42</v>
+        <v>1706.58656</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.66000000000003</v>
+        <v>1.21605050607023</v>
       </c>
       <c r="H5" t="n">
-        <v>350.15</v>
+        <v>1208.6</v>
       </c>
       <c r="I5" t="n">
-        <v>339.08</v>
+        <v>1705.37050949393</v>
       </c>
       <c r="J5" t="n">
-        <v>51.89</v>
+        <v>322.929733175705</v>
       </c>
       <c r="K5" t="n">
-        <v>251.42</v>
+        <v>1129.06434098144</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>0.7</v>
+        <v>1.98</v>
       </c>
       <c r="N5" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>39.3113030971343</v>
+      </c>
+      <c r="O5" t="n">
+        <v>525.43656</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.162748044876</v>
+        <v>214.4</v>
       </c>
       <c r="C6" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>41.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8</v>
+      </c>
       <c r="E6" t="n">
-        <v>24.4</v>
+        <v>26.1</v>
       </c>
       <c r="F6" t="n">
-        <v>390.2</v>
+        <v>1866.8</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.51899999999989</v>
+        <v>-3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>414.6</v>
+        <v>1301.6</v>
       </c>
       <c r="I6" t="n">
-        <v>396.719</v>
+        <v>1870.6</v>
       </c>
       <c r="J6" t="n">
-        <v>67.22</v>
+        <v>342.6</v>
       </c>
       <c r="K6" t="n">
-        <v>278.63</v>
+        <v>1223</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>1.39</v>
+        <v>1.9</v>
       </c>
       <c r="N6" t="n">
-        <v>9.179</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>46.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>591.3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>237.6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>45.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9</v>
+      </c>
       <c r="E7" t="n">
-        <v>29.7</v>
+        <v>32.5</v>
       </c>
       <c r="F7" t="n">
-        <v>463.5</v>
+        <v>1925</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.6</v>
+        <v>-6.7</v>
       </c>
       <c r="H7" t="n">
-        <v>493.2</v>
+        <v>1346.1</v>
       </c>
       <c r="I7" t="n">
-        <v>466.1</v>
+        <v>1931.8</v>
       </c>
       <c r="J7" t="n">
-        <v>79.40000000000001</v>
+        <v>359.8</v>
       </c>
       <c r="K7" t="n">
-        <v>327.2</v>
+        <v>1234.5</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N7" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>51.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>611.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.2367037182881</v>
+        <v>254.8</v>
       </c>
       <c r="C8" t="n">
-        <v>12.768</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>48.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.1</v>
+      </c>
       <c r="E8" t="n">
-        <v>28.98</v>
+        <v>33.8</v>
       </c>
       <c r="F8" t="n">
-        <v>566.05</v>
+        <v>2080.5</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.27761900000002</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>585.53</v>
+        <v>1368.7</v>
       </c>
       <c r="I8" t="n">
-        <v>573.327619</v>
+        <v>2078.1</v>
       </c>
       <c r="J8" t="n">
-        <v>102.615819</v>
+        <v>379.7</v>
       </c>
       <c r="K8" t="n">
-        <v>398.88</v>
+        <v>1338.6</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="N8" t="n">
-        <v>13.1638</v>
+        <v>53.7</v>
       </c>
       <c r="O8" t="n">
-        <v>9.5</v>
+        <v>745.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46.8823479822119</v>
+        <v>284.7</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0902</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.1</v>
+      </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>35.3</v>
       </c>
       <c r="F9" t="n">
-        <v>706.6</v>
+        <v>2390.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.36855530000003</v>
+        <v>-3</v>
       </c>
       <c r="H9" t="n">
-        <v>692.4</v>
+        <v>1480.4</v>
       </c>
       <c r="I9" t="n">
-        <v>705.2314447</v>
+        <v>2393.7</v>
       </c>
       <c r="J9" t="n">
-        <v>143.3861647</v>
+        <v>420.3</v>
       </c>
       <c r="K9" t="n">
-        <v>479.669932</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>1575.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-549.41</v>
+      </c>
       <c r="M9" t="n">
-        <v>2.0916</v>
+        <v>1.8</v>
       </c>
       <c r="N9" t="n">
-        <v>17.108</v>
+        <v>57.6</v>
       </c>
       <c r="O9" t="n">
-        <v>40.2</v>
+        <v>945.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.55366470944639</v>
+        <v>286.2</v>
       </c>
       <c r="C10" t="n">
-        <v>20.91726</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>57.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.3</v>
+      </c>
       <c r="E10" t="n">
-        <v>32.45</v>
+        <v>33.6</v>
       </c>
       <c r="F10" t="n">
-        <v>816.59</v>
+        <v>2814.3</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65570435999985</v>
+        <v>-2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>803</v>
+        <v>1601.6</v>
       </c>
       <c r="I10" t="n">
-        <v>812.93429564</v>
+        <v>2817.1</v>
       </c>
       <c r="J10" t="n">
-        <v>170.12236564</v>
+        <v>468.4</v>
       </c>
       <c r="K10" t="n">
-        <v>531.6039015</v>
+        <v>1940.1</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.99</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>17.75</v>
+        <v>60.8</v>
       </c>
       <c r="O10" t="n">
-        <v>46.04</v>
+        <v>1246.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.0657127094464</v>
+        <v>341.5</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6365038</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>57.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.2</v>
+      </c>
       <c r="E11" t="n">
-        <v>32.09</v>
+        <v>36.1</v>
       </c>
       <c r="F11" t="n">
-        <v>896.9400000000001</v>
+        <v>3057.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.74157570440002</v>
+        <v>-2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>852.6900000000001</v>
+        <v>1761.7</v>
       </c>
       <c r="I11" t="n">
-        <v>895.1984242956</v>
+        <v>3059.7</v>
       </c>
       <c r="J11" t="n">
-        <v>177.6697054956</v>
+        <v>502.3</v>
       </c>
       <c r="K11" t="n">
-        <v>577.89660542</v>
+        <v>2092.1</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0.968715</v>
+        <v>2.8</v>
       </c>
       <c r="N11" t="n">
-        <v>23.9625</v>
+        <v>62.5</v>
       </c>
       <c r="O11" t="n">
-        <v>76.34</v>
+        <v>1331.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.7</v>
+        <v>354.3</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>55.6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E12" t="n">
-        <v>40.3</v>
+        <v>51.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1082.3</v>
+        <v>3270.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="n">
-        <v>957.9</v>
+        <v>1925</v>
       </c>
       <c r="I12" t="n">
-        <v>1080.2</v>
+        <v>3339.9</v>
       </c>
       <c r="J12" t="n">
-        <v>226.9</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
-        <v>691.8</v>
+        <v>2304</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N12" t="n">
-        <v>27.2</v>
+        <v>62.1</v>
       </c>
       <c r="O12" t="n">
-        <v>164.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1333</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1053.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1341.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>875.7</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>311.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1497.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1106.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1497</v>
-      </c>
-      <c r="J14" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>980.7</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>420.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1706.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1208.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1705.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>322.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1129.1</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>525.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1866.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1301.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1870.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>342.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1223</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>591.3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1925</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1346.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1931.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1234.5</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>611.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>254.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2080.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1368.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2078.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>379.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1338.6</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N18" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>745.6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>284.7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2390.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1480.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2393.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>420.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1575.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-549.41</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N19" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2814.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1601.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2817.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>468.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1940.1</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1246.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>341.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3057.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1761.74</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3059.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>502.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2092.1</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N21" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1331.8</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
